--- a/Graph/send_message.xlsx
+++ b/Graph/send_message.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Graph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\Graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E427B434-8054-4E54-B66B-6530D90525DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="15096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="162">
   <si>
     <t>OFC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,39 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이미현</t>
-  </si>
-  <si>
-    <t>신범수</t>
-  </si>
-  <si>
-    <t>김현호</t>
-  </si>
-  <si>
-    <t>임철만</t>
-  </si>
-  <si>
-    <t>정해웅</t>
-  </si>
-  <si>
-    <t>정홍균</t>
-  </si>
-  <si>
-    <t>박수준</t>
-  </si>
-  <si>
-    <t>안샛별</t>
-  </si>
-  <si>
-    <t>오상철</t>
-  </si>
-  <si>
-    <t>이성민</t>
-  </si>
-  <si>
-    <t>최병권</t>
-  </si>
-  <si>
     <t>전대경영대</t>
   </si>
   <si>
@@ -164,90 +143,6 @@
     <t>여수공화중앙</t>
   </si>
   <si>
-    <t>박재범</t>
-  </si>
-  <si>
-    <t>배용민</t>
-  </si>
-  <si>
-    <t>서상호</t>
-  </si>
-  <si>
-    <t>신연호</t>
-  </si>
-  <si>
-    <t>신인호</t>
-  </si>
-  <si>
-    <t>안재권</t>
-  </si>
-  <si>
-    <t>안제민</t>
-  </si>
-  <si>
-    <t>안지수</t>
-  </si>
-  <si>
-    <t>오봉환</t>
-  </si>
-  <si>
-    <t>오세미</t>
-  </si>
-  <si>
-    <t>오정현</t>
-  </si>
-  <si>
-    <t>오지운</t>
-  </si>
-  <si>
-    <t>오철승</t>
-  </si>
-  <si>
-    <t>유갑성</t>
-  </si>
-  <si>
-    <t>이승리</t>
-  </si>
-  <si>
-    <t>이청용</t>
-  </si>
-  <si>
-    <t>장석조</t>
-  </si>
-  <si>
-    <t>장현우</t>
-  </si>
-  <si>
-    <t>정계영</t>
-  </si>
-  <si>
-    <t>정성연</t>
-  </si>
-  <si>
-    <t>정영로</t>
-  </si>
-  <si>
-    <t>정용철</t>
-  </si>
-  <si>
-    <t>조주원</t>
-  </si>
-  <si>
-    <t>채산</t>
-  </si>
-  <si>
-    <t>채한올</t>
-  </si>
-  <si>
-    <t>최성혁</t>
-  </si>
-  <si>
-    <t>한윤성</t>
-  </si>
-  <si>
-    <t>황유지</t>
-  </si>
-  <si>
     <t>연향하우스</t>
   </si>
   <si>
@@ -627,13 +522,17 @@
   </si>
   <si>
     <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
@@ -716,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +642,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,57 +939,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="50.625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" customWidth="1"/>
+    <col min="3" max="3" width="50.59765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="9"/>
       <c r="I1" s="4" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="8" t="str">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="str">
         <f>"경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:"&amp;TEXT(I2,"##")&amp;"개 (최대 80% 지원)&lt;br&gt;주먹밥 : "&amp;TEXT(J2,"##,#")&amp;"개(최대 80% 지원) &lt;br&gt;햄버거 : "&amp;TEXT(K2,"##")&amp;"개(최대 80% 지원) &lt;br&gt;샌드위치 : "&amp;TEXT(L2,"##")&amp;"개(최대 80% 지원) &lt;br&gt;FF간편식 : "&amp;TEXT(M2,"##")&amp;"개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다."</f>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:12개 (최대 80% 지원)&lt;br&gt;주먹밥 : 14개(최대 80% 지원) &lt;br&gt;햄버거 : 11개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 7개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D2" s="9"/>
       <c r="I2" s="2">
         <v>12.342857147999998</v>
       </c>
@@ -1102,17 +1009,18 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="8" t="str">
-        <f t="shared" ref="C2:C17" si="0">"경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:"&amp;TEXT(I3,"##")&amp;"개 (최대 80% 지원)&lt;br&gt;주먹밥 : "&amp;TEXT(J3,"##,#")&amp;"개(최대 80% 지원) &lt;br&gt;햄버거 : "&amp;TEXT(K3,"##")&amp;"개(최대 80% 지원) &lt;br&gt;샌드위치 : "&amp;TEXT(L3,"##")&amp;"개(최대 80% 지원) &lt;br&gt;FF간편식 : "&amp;TEXT(M3,"##")&amp;"개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다."</f>
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="str">
+        <f t="shared" ref="C3:C17" si="0">"경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:"&amp;TEXT(I3,"##")&amp;"개 (최대 80% 지원)&lt;br&gt;주먹밥 : "&amp;TEXT(J3,"##,#")&amp;"개(최대 80% 지원) &lt;br&gt;햄버거 : "&amp;TEXT(K3,"##")&amp;"개(최대 80% 지원) &lt;br&gt;샌드위치 : "&amp;TEXT(L3,"##")&amp;"개(최대 80% 지원) &lt;br&gt;FF간편식 : "&amp;TEXT(M3,"##")&amp;"개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다."</f>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:8개 (최대 80% 지원)&lt;br&gt;주먹밥 : 7개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D3" s="9"/>
       <c r="I3" s="2">
         <v>7.714285714799999</v>
       </c>
@@ -1130,17 +1038,18 @@
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="8" t="str">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:6개 (최대 80% 지원)&lt;br&gt;주먹밥 : 17개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 3개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D4" s="9"/>
       <c r="I4" s="2">
         <v>5.6571428567999993</v>
       </c>
@@ -1158,17 +1067,18 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="8" t="str">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:26개 (최대 80% 지원)&lt;br&gt;주먹밥 : 40개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 12개(최대 80% 지원) &lt;br&gt;FF간편식 : 5개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D5" s="9"/>
       <c r="I5" s="2">
         <v>25.571428569999998</v>
       </c>
@@ -1186,19 +1096,19 @@
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="8" t="str">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:17개 (최대 80% 지원)&lt;br&gt;주먹밥 : 28개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 13개(최대 80% 지원) &lt;br&gt;FF간편식 : 4개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
-      <c r="D6" t="s">
-        <v>199</v>
+      <c r="D6" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="I6" s="2">
         <v>16.628571431999998</v>
@@ -1217,17 +1127,18 @@
       </c>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="8" t="str">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:10개 (최대 80% 지원)&lt;br&gt;주먹밥 : 19개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 11개(최대 80% 지원) &lt;br&gt;FF간편식 : 5개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D7" s="9"/>
       <c r="I7" s="2">
         <v>9.9428571431999995</v>
       </c>
@@ -1245,17 +1156,18 @@
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="8" t="str">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 35개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D8" s="9"/>
       <c r="I8" s="2">
         <v>8.5714285715999985</v>
       </c>
@@ -1273,17 +1185,18 @@
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="8" t="str">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:7개 (최대 80% 지원)&lt;br&gt;주먹밥 : 19개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D9" s="9"/>
       <c r="I9" s="2">
         <v>6.8571428567999995</v>
       </c>
@@ -1301,17 +1214,18 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="8" t="str">
+        <v>35</v>
+      </c>
+      <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:11개 (최대 80% 지원)&lt;br&gt;주먹밥 : 29개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D10" s="9"/>
       <c r="I10" s="2">
         <v>10.971428571600001</v>
       </c>
@@ -1329,17 +1243,18 @@
       </c>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="8" t="str">
+        <v>36</v>
+      </c>
+      <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:12개 (최대 80% 지원)&lt;br&gt;주먹밥 : 21개(최대 80% 지원) &lt;br&gt;햄버거 : 2개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D11" s="9"/>
       <c r="I11" s="2">
         <v>12</v>
       </c>
@@ -1357,17 +1272,18 @@
       </c>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="8" t="str">
+        <v>37</v>
+      </c>
+      <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:8개 (최대 80% 지원)&lt;br&gt;주먹밥 : 12개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D12" s="9"/>
       <c r="I12" s="2">
         <v>8.0571428567999988</v>
       </c>
@@ -1385,17 +1301,18 @@
       </c>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="8" t="str">
+        <v>38</v>
+      </c>
+      <c r="C13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:10개 (최대 80% 지원)&lt;br&gt;주먹밥 : 34개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D13" s="9"/>
       <c r="I13" s="2">
         <v>9.6</v>
       </c>
@@ -1413,17 +1330,18 @@
       </c>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="8" t="str">
+        <v>39</v>
+      </c>
+      <c r="C14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:25개 (최대 80% 지원)&lt;br&gt;주먹밥 : 55개(최대 80% 지원) &lt;br&gt;햄버거 : 12개(최대 80% 지원) &lt;br&gt;샌드위치 : 12개(최대 80% 지원) &lt;br&gt;FF간편식 : 9개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D14" s="9"/>
       <c r="I14" s="2">
         <v>25</v>
       </c>
@@ -1441,17 +1359,18 @@
       </c>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="8" t="str">
+        <v>40</v>
+      </c>
+      <c r="C15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:19개 (최대 80% 지원)&lt;br&gt;주먹밥 : 31개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 12개(최대 80% 지원) &lt;br&gt;FF간편식 : 7개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D15" s="9"/>
       <c r="I15" s="2">
         <v>19.2</v>
       </c>
@@ -1469,17 +1388,18 @@
       </c>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="8" t="str">
+        <v>41</v>
+      </c>
+      <c r="C16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:12개 (최대 80% 지원)&lt;br&gt;주먹밥 : 19개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 3개(최대 80% 지원) &lt;br&gt;FF간편식 : 4개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D16" s="9"/>
       <c r="I16" s="2">
         <v>12</v>
       </c>
@@ -1497,17 +1417,18 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="8" t="str">
+        <v>42</v>
+      </c>
+      <c r="C17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:8개 (최대 80% 지원)&lt;br&gt;주먹밥 : 31개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D17" s="9"/>
       <c r="I17" s="2">
         <v>7.5428571432</v>
       </c>
@@ -1525,17 +1446,18 @@
       </c>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="8" t="str">
+        <v>43</v>
+      </c>
+      <c r="C18" s="10" t="str">
         <f t="shared" ref="C18:C81" si="1">"경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:"&amp;TEXT(I18,"##")&amp;"개 (최대 80% 지원)&lt;br&gt;주먹밥 : "&amp;TEXT(J18,"##,#")&amp;"개(최대 80% 지원) &lt;br&gt;햄버거 : "&amp;TEXT(K18,"##")&amp;"개(최대 80% 지원) &lt;br&gt;샌드위치 : "&amp;TEXT(L18,"##")&amp;"개(최대 80% 지원) &lt;br&gt;FF간편식 : "&amp;TEXT(M18,"##")&amp;"개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다."</f>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:6개 (최대 80% 지원)&lt;br&gt;주먹밥 : 12개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 4개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D18" s="9"/>
       <c r="I18" s="2">
         <v>6.171428571599999</v>
       </c>
@@ -1553,17 +1475,18 @@
       </c>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="8" t="str">
+        <v>44</v>
+      </c>
+      <c r="C19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:13개 (최대 80% 지원)&lt;br&gt;주먹밥 : 26개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D19" s="9"/>
       <c r="I19" s="2">
         <v>12.514285716</v>
       </c>
@@ -1581,17 +1504,18 @@
       </c>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="8" t="str">
+        <v>45</v>
+      </c>
+      <c r="C20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:12개 (최대 80% 지원)&lt;br&gt;주먹밥 : 14개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 3개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D20" s="9"/>
       <c r="I20" s="2">
         <v>11.6571428568</v>
       </c>
@@ -1609,17 +1533,18 @@
       </c>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="8" t="str">
+      <c r="C21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:15개 (최대 80% 지원)&lt;br&gt;주먹밥 : 31개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D21" s="9"/>
       <c r="I21" s="2">
         <v>14.914285715999998</v>
       </c>
@@ -1637,17 +1562,18 @@
       </c>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="8" t="str">
+      <c r="C22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:13개 (최대 80% 지원)&lt;br&gt;주먹밥 : 28개(최대 80% 지원) &lt;br&gt;햄버거 : 3개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D22" s="9"/>
       <c r="I22" s="2">
         <v>12.857142852000001</v>
       </c>
@@ -1665,17 +1591,18 @@
       </c>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="8" t="str">
+        <v>48</v>
+      </c>
+      <c r="C23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:21개 (최대 80% 지원)&lt;br&gt;주먹밥 : 41개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D23" s="9"/>
       <c r="I23" s="2">
         <v>21.257142851999998</v>
       </c>
@@ -1693,17 +1620,18 @@
       </c>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="8" t="str">
+        <v>49</v>
+      </c>
+      <c r="C24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:17개 (최대 80% 지원)&lt;br&gt;주먹밥 : 29개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D24" s="9"/>
       <c r="I24" s="2">
         <v>17.314285716000001</v>
       </c>
@@ -1721,17 +1649,18 @@
       </c>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="8" t="str">
+        <v>50</v>
+      </c>
+      <c r="C25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 16개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D25" s="9"/>
       <c r="I25" s="2">
         <v>9.0857142851999999</v>
       </c>
@@ -1749,17 +1678,18 @@
       </c>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="8" t="str">
+        <v>51</v>
+      </c>
+      <c r="C26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:12개 (최대 80% 지원)&lt;br&gt;주먹밥 : 20개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D26" s="9"/>
       <c r="I26" s="2">
         <v>12</v>
       </c>
@@ -1777,17 +1707,18 @@
       </c>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="8" t="str">
+        <v>52</v>
+      </c>
+      <c r="C27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:30개 (최대 80% 지원)&lt;br&gt;주먹밥 : 72개(최대 80% 지원) &lt;br&gt;햄버거 : 14개(최대 80% 지원) &lt;br&gt;샌드위치 : 18개(최대 80% 지원) &lt;br&gt;FF간편식 : 11개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D27" s="9"/>
       <c r="I27" s="2">
         <v>29.714285709999999</v>
       </c>
@@ -1805,17 +1736,18 @@
       </c>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="8" t="str">
+        <v>8</v>
+      </c>
+      <c r="C28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:16개 (최대 80% 지원)&lt;br&gt;주먹밥 : 26개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D28" s="9"/>
       <c r="I28" s="2">
         <v>16.285714284000001</v>
       </c>
@@ -1833,17 +1765,18 @@
       </c>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="8" t="str">
+        <v>31</v>
+      </c>
+      <c r="C29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:26개 (최대 80% 지원)&lt;br&gt;주먹밥 : 28개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 16개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D29" s="9"/>
       <c r="I29" s="2">
         <v>26.285714290000001</v>
       </c>
@@ -1861,17 +1794,18 @@
       </c>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="8" t="str">
+        <v>32</v>
+      </c>
+      <c r="C30" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:16개 (최대 80% 지원)&lt;br&gt;주먹밥 : 17개(최대 80% 지원) &lt;br&gt;햄버거 : 9개(최대 80% 지원) &lt;br&gt;샌드위치 : 11개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D30" s="9"/>
       <c r="I30" s="2">
         <v>15.771428567999999</v>
       </c>
@@ -1889,17 +1823,18 @@
       </c>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="8" t="str">
+        <v>33</v>
+      </c>
+      <c r="C31" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:12개 (최대 80% 지원)&lt;br&gt;주먹밥 : 21개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 4개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D31" s="9"/>
       <c r="I31" s="2">
         <v>11.828571428399998</v>
       </c>
@@ -1917,17 +1852,18 @@
       </c>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="8" t="str">
+        <v>53</v>
+      </c>
+      <c r="C32" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:12개 (최대 80% 지원)&lt;br&gt;주먹밥 : 36개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 12개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D32" s="9"/>
       <c r="I32" s="2">
         <v>12.171428568</v>
       </c>
@@ -1945,17 +1881,18 @@
       </c>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="8" t="str">
+        <v>54</v>
+      </c>
+      <c r="C33" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:6개 (최대 80% 지원)&lt;br&gt;주먹밥 : 19개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D33" s="9"/>
       <c r="I33" s="2">
         <v>6.171428571599999</v>
       </c>
@@ -1973,17 +1910,18 @@
       </c>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="8" t="str">
+        <v>55</v>
+      </c>
+      <c r="C34" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:10개 (최대 80% 지원)&lt;br&gt;주먹밥 : 14개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D34" s="9"/>
       <c r="I34" s="2">
         <v>9.9428571431999995</v>
       </c>
@@ -2001,17 +1939,18 @@
       </c>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="8" t="str">
+        <v>21</v>
+      </c>
+      <c r="C35" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:5개 (최대 80% 지원)&lt;br&gt;주먹밥 : 19개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 4개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D35" s="9"/>
       <c r="I35" s="2">
         <v>5.1428571431999996</v>
       </c>
@@ -2029,17 +1968,18 @@
       </c>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="8" t="str">
+        <v>22</v>
+      </c>
+      <c r="C36" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:17개 (최대 80% 지원)&lt;br&gt;주먹밥 : 24개(최대 80% 지원) &lt;br&gt;햄버거 : 9개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 4개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D36" s="9"/>
       <c r="I36" s="2">
         <v>17.142857147999997</v>
       </c>
@@ -2057,17 +1997,18 @@
       </c>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="8" t="str">
+        <v>23</v>
+      </c>
+      <c r="C37" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:11개 (최대 80% 지원)&lt;br&gt;주먹밥 : 21개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 11개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D37" s="9"/>
       <c r="I37" s="2">
         <v>11.4857142852</v>
       </c>
@@ -2085,17 +2026,18 @@
       </c>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="8" t="str">
+        <v>56</v>
+      </c>
+      <c r="C38" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:21개 (최대 80% 지원)&lt;br&gt;주먹밥 : 50개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 14개(최대 80% 지원) &lt;br&gt;FF간편식 : 4개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D38" s="9"/>
       <c r="I38" s="2">
         <v>21.428571431999998</v>
       </c>
@@ -2113,17 +2055,18 @@
       </c>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="8" t="str">
+        <v>57</v>
+      </c>
+      <c r="C39" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:16개 (최대 80% 지원)&lt;br&gt;주먹밥 : 53개(최대 80% 지원) &lt;br&gt;햄버거 : 10개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D39" s="9"/>
       <c r="I39" s="2">
         <v>15.942857147999998</v>
       </c>
@@ -2141,17 +2084,18 @@
       </c>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="8" t="str">
+        <v>58</v>
+      </c>
+      <c r="C40" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:16개 (최대 80% 지원)&lt;br&gt;주먹밥 : 34개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 11개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D40" s="9"/>
       <c r="I40" s="2">
         <v>16.285714284000001</v>
       </c>
@@ -2169,17 +2113,18 @@
       </c>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="8" t="str">
+        <v>59</v>
+      </c>
+      <c r="C41" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:20개 (최대 80% 지원)&lt;br&gt;주먹밥 : 27개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 6개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D41" s="9"/>
       <c r="I41" s="2">
         <v>20.399999999999999</v>
       </c>
@@ -2197,17 +2142,18 @@
       </c>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="8" t="str">
+        <v>60</v>
+      </c>
+      <c r="C42" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:14개 (최대 80% 지원)&lt;br&gt;주먹밥 : 47개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 15개(최대 80% 지원) &lt;br&gt;FF간편식 : 5개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D42" s="9"/>
       <c r="I42" s="2">
         <v>14.228571431999999</v>
       </c>
@@ -2225,17 +2171,18 @@
       </c>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="8" t="str">
+        <v>61</v>
+      </c>
+      <c r="C43" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:19개 (최대 80% 지원)&lt;br&gt;주먹밥 : 31개(최대 80% 지원) &lt;br&gt;햄버거 : 10개(최대 80% 지원) &lt;br&gt;샌드위치 : 14개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D43" s="9"/>
       <c r="I43" s="2">
         <v>19.028571432</v>
       </c>
@@ -2253,17 +2200,18 @@
       </c>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="8" t="str">
+        <v>62</v>
+      </c>
+      <c r="C44" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:7개 (최대 80% 지원)&lt;br&gt;주먹밥 : 24개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D44" s="9"/>
       <c r="I44" s="2">
         <v>7.0285714284000003</v>
       </c>
@@ -2281,17 +2229,18 @@
       </c>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="8" t="str">
+        <v>63</v>
+      </c>
+      <c r="C45" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:16개 (최대 80% 지원)&lt;br&gt;주먹밥 : 25개(최대 80% 지원) &lt;br&gt;햄버거 : 9개(최대 80% 지원) &lt;br&gt;샌드위치 : 10개(최대 80% 지원) &lt;br&gt;FF간편식 : 4개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D45" s="9"/>
       <c r="I45" s="2">
         <v>16.457142852</v>
       </c>
@@ -2309,17 +2258,18 @@
       </c>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="8" t="str">
+        <v>64</v>
+      </c>
+      <c r="C46" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:14개 (최대 80% 지원)&lt;br&gt;주먹밥 : 27개(최대 80% 지원) &lt;br&gt;햄버거 : 9개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 4개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D46" s="9"/>
       <c r="I46" s="2">
         <v>14.399999999999999</v>
       </c>
@@ -2337,17 +2287,18 @@
       </c>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="8" t="str">
+        <v>65</v>
+      </c>
+      <c r="C47" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:13개 (최대 80% 지원)&lt;br&gt;주먹밥 : 35개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D47" s="9"/>
       <c r="I47" s="2">
         <v>12.514285716</v>
       </c>
@@ -2365,17 +2316,18 @@
       </c>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="8" t="str">
+        <v>66</v>
+      </c>
+      <c r="C48" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:16개 (최대 80% 지원)&lt;br&gt;주먹밥 : 26개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 10개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D48" s="9"/>
       <c r="I48" s="2">
         <v>16.285714284000001</v>
       </c>
@@ -2393,17 +2345,18 @@
       </c>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="8" t="str">
+        <v>25</v>
+      </c>
+      <c r="C49" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 21개(최대 80% 지원) &lt;br&gt;햄버거 : 10개(최대 80% 지원) &lt;br&gt;샌드위치 : 6개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D49" s="9"/>
       <c r="I49" s="2">
         <v>9.0857142851999999</v>
       </c>
@@ -2421,17 +2374,18 @@
       </c>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="8" t="str">
+        <v>67</v>
+      </c>
+      <c r="C50" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 30개(최대 80% 지원) &lt;br&gt;햄버거 : 3개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D50" s="9"/>
       <c r="I50" s="2">
         <v>8.5714285715999985</v>
       </c>
@@ -2449,17 +2403,18 @@
       </c>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="8" t="str">
+        <v>68</v>
+      </c>
+      <c r="C51" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:10개 (최대 80% 지원)&lt;br&gt;주먹밥 : 28개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D51" s="9"/>
       <c r="I51" s="2">
         <v>10.457142856800001</v>
       </c>
@@ -2477,17 +2432,18 @@
       </c>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="8" t="str">
+        <v>69</v>
+      </c>
+      <c r="C52" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:11개 (최대 80% 지원)&lt;br&gt;주먹밥 : 30개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D52" s="9"/>
       <c r="I52" s="2">
         <v>10.799999999999999</v>
       </c>
@@ -2505,17 +2461,18 @@
       </c>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="8" t="str">
+        <v>70</v>
+      </c>
+      <c r="C53" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:11개 (최대 80% 지원)&lt;br&gt;주먹밥 : 20개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 6개(최대 80% 지원) &lt;br&gt;FF간편식 : 4개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D53" s="9"/>
       <c r="I53" s="2">
         <v>10.628571428399999</v>
       </c>
@@ -2533,17 +2490,18 @@
       </c>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="8" t="str">
+        <v>71</v>
+      </c>
+      <c r="C54" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:7개 (최대 80% 지원)&lt;br&gt;주먹밥 : 14개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 6개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D54" s="9"/>
       <c r="I54" s="2">
         <v>6.6857142852000004</v>
       </c>
@@ -2561,17 +2519,18 @@
       </c>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="8" t="str">
+        <v>24</v>
+      </c>
+      <c r="C55" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:15개 (최대 80% 지원)&lt;br&gt;주먹밥 : 31개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 13개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D55" s="9"/>
       <c r="I55" s="2">
         <v>14.742857147999999</v>
       </c>
@@ -2589,17 +2548,18 @@
       </c>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="8" t="str">
+        <v>26</v>
+      </c>
+      <c r="C56" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:17개 (최대 80% 지원)&lt;br&gt;주먹밥 : 53개(최대 80% 지원) &lt;br&gt;햄버거 : 10개(최대 80% 지원) &lt;br&gt;샌드위치 : 10개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D56" s="9"/>
       <c r="I56" s="2">
         <v>17.314285716000001</v>
       </c>
@@ -2617,17 +2577,18 @@
       </c>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="8" t="str">
+        <v>72</v>
+      </c>
+      <c r="C57" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:5개 (최대 80% 지원)&lt;br&gt;주먹밥 : 11개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 4개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D57" s="9"/>
       <c r="I57" s="2">
         <v>4.8</v>
       </c>
@@ -2645,17 +2606,18 @@
       </c>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C58" s="8" t="str">
+        <v>73</v>
+      </c>
+      <c r="C58" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:27개 (최대 80% 지원)&lt;br&gt;주먹밥 : 30개(최대 80% 지원) &lt;br&gt;햄버거 : 13개(최대 80% 지원) &lt;br&gt;샌드위치 : 15개(최대 80% 지원) &lt;br&gt;FF간편식 : 6개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D58" s="9"/>
       <c r="I58" s="2">
         <v>26.571428569999998</v>
       </c>
@@ -2673,17 +2635,18 @@
       </c>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="8" t="str">
+        <v>74</v>
+      </c>
+      <c r="C59" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:12개 (최대 80% 지원)&lt;br&gt;주먹밥 : 8개(최대 80% 지원) &lt;br&gt;햄버거 : 2개(최대 80% 지원) &lt;br&gt;샌드위치 : 4개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D59" s="9"/>
       <c r="I59" s="2">
         <v>12.342857147999998</v>
       </c>
@@ -2701,17 +2664,18 @@
       </c>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="8" t="str">
+        <v>75</v>
+      </c>
+      <c r="C60" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:3개 (최대 80% 지원)&lt;br&gt;주먹밥 : 15개(최대 80% 지원) &lt;br&gt;햄버거 : 2개(최대 80% 지원) &lt;br&gt;샌드위치 : 2개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D60" s="9"/>
       <c r="I60" s="2">
         <v>3.0857142852000004</v>
       </c>
@@ -2729,17 +2693,18 @@
       </c>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="8" t="str">
+        <v>76</v>
+      </c>
+      <c r="C61" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 20개(최대 80% 지원) &lt;br&gt;햄버거 : 12개(최대 80% 지원) &lt;br&gt;샌드위치 : 10개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D61" s="9"/>
       <c r="I61" s="2">
         <v>9.4285714283999997</v>
       </c>
@@ -2757,17 +2722,18 @@
       </c>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="8" t="str">
+        <v>77</v>
+      </c>
+      <c r="C62" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:11개 (최대 80% 지원)&lt;br&gt;주먹밥 : 15개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D62" s="9"/>
       <c r="I62" s="2">
         <v>10.628571428399999</v>
       </c>
@@ -2785,17 +2751,18 @@
       </c>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C63" s="8" t="str">
+        <v>78</v>
+      </c>
+      <c r="C63" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:55개 (최대 80% 지원)&lt;br&gt;주먹밥 : 51개(최대 80% 지원) &lt;br&gt;햄버거 : 10개(최대 80% 지원) &lt;br&gt;샌드위치 : 19개(최대 80% 지원) &lt;br&gt;FF간편식 : 4개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D63" s="9"/>
       <c r="I63" s="2">
         <v>55.142857139999997</v>
       </c>
@@ -2813,17 +2780,18 @@
       </c>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="8" t="str">
+        <v>79</v>
+      </c>
+      <c r="C64" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:17개 (최대 80% 지원)&lt;br&gt;주먹밥 : 34개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 12개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D64" s="9"/>
       <c r="I64" s="2">
         <v>16.8</v>
       </c>
@@ -2841,17 +2809,18 @@
       </c>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="8" t="str">
+        <v>80</v>
+      </c>
+      <c r="C65" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:8개 (최대 80% 지원)&lt;br&gt;주먹밥 : 20개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 6개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D65" s="9"/>
       <c r="I65" s="2">
         <v>8.2285714284000004</v>
       </c>
@@ -2869,17 +2838,18 @@
       </c>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="8" t="str">
+        <v>81</v>
+      </c>
+      <c r="C66" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:16개 (최대 80% 지원)&lt;br&gt;주먹밥 : 30개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 4개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D66" s="9"/>
       <c r="I66" s="2">
         <v>16.457142852</v>
       </c>
@@ -2897,17 +2867,18 @@
       </c>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="8" t="str">
+        <v>82</v>
+      </c>
+      <c r="C67" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:6개 (최대 80% 지원)&lt;br&gt;주먹밥 : 8개(최대 80% 지원) &lt;br&gt;햄버거 : 3개(최대 80% 지원) &lt;br&gt;샌드위치 : 3개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D67" s="9"/>
       <c r="I67" s="2">
         <v>5.6571428567999993</v>
       </c>
@@ -2925,17 +2896,18 @@
       </c>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="8" t="str">
+        <v>83</v>
+      </c>
+      <c r="C68" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:15개 (최대 80% 지원)&lt;br&gt;주먹밥 : 26개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D68" s="9"/>
       <c r="I68" s="2">
         <v>14.914285715999998</v>
       </c>
@@ -2953,17 +2925,18 @@
       </c>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="8" t="str">
+        <v>84</v>
+      </c>
+      <c r="C69" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:7개 (최대 80% 지원)&lt;br&gt;주먹밥 : 19개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 6개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D69" s="9"/>
       <c r="I69" s="2">
         <v>6.8571428567999995</v>
       </c>
@@ -2981,17 +2954,18 @@
       </c>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="8" t="str">
+        <v>85</v>
+      </c>
+      <c r="C70" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:13개 (최대 80% 지원)&lt;br&gt;주먹밥 : 34개(최대 80% 지원) &lt;br&gt;햄버거 : 3개(최대 80% 지원) &lt;br&gt;샌드위치 : 10개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D70" s="9"/>
       <c r="I70" s="2">
         <v>13.2</v>
       </c>
@@ -3009,17 +2983,18 @@
       </c>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="8" t="str">
+      <c r="C71" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:24개 (최대 80% 지원)&lt;br&gt;주먹밥 : 24개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D71" s="9"/>
       <c r="I71" s="2">
         <v>24.285714290000001</v>
       </c>
@@ -3037,17 +3012,18 @@
       </c>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="8" t="str">
+        <v>4</v>
+      </c>
+      <c r="C72" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:17개 (최대 80% 지원)&lt;br&gt;주먹밥 : 30개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 16개(최대 80% 지원) &lt;br&gt;FF간편식 : 5개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D72" s="9"/>
       <c r="I72" s="2">
         <v>16.8</v>
       </c>
@@ -3065,17 +3041,18 @@
       </c>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="8" t="str">
+        <v>5</v>
+      </c>
+      <c r="C73" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 17개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 3개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D73" s="9"/>
       <c r="I73" s="2">
         <v>8.5714285715999985</v>
       </c>
@@ -3093,17 +3070,18 @@
       </c>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="8" t="str">
+        <v>6</v>
+      </c>
+      <c r="C74" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:14개 (최대 80% 지원)&lt;br&gt;주먹밥 : 22개(최대 80% 지원) &lt;br&gt;햄버거 : 13개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D74" s="9"/>
       <c r="I74" s="2">
         <v>14.399999999999999</v>
       </c>
@@ -3121,17 +3099,18 @@
       </c>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C75" s="8" t="str">
+        <v>27</v>
+      </c>
+      <c r="C75" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:8개 (최대 80% 지원)&lt;br&gt;주먹밥 : 17개(최대 80% 지원) &lt;br&gt;햄버거 : 3개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D75" s="9"/>
       <c r="I75" s="2">
         <v>8.4</v>
       </c>
@@ -3149,17 +3128,18 @@
       </c>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="8" t="str">
+        <v>28</v>
+      </c>
+      <c r="C76" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:10개 (최대 80% 지원)&lt;br&gt;주먹밥 : 21개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 6개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D76" s="9"/>
       <c r="I76" s="2">
         <v>10.285714285199999</v>
       </c>
@@ -3177,17 +3157,18 @@
       </c>
       <c r="N76" s="6"/>
     </row>
-    <row r="77" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C77" s="8" t="str">
+        <v>29</v>
+      </c>
+      <c r="C77" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:5개 (최대 80% 지원)&lt;br&gt;주먹밥 : 9개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D77" s="9"/>
       <c r="I77" s="2">
         <v>5.1428571431999996</v>
       </c>
@@ -3205,17 +3186,18 @@
       </c>
       <c r="N77" s="6"/>
     </row>
-    <row r="78" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="8" t="str">
+        <v>30</v>
+      </c>
+      <c r="C78" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:2개 (최대 80% 지원)&lt;br&gt;주먹밥 : 5개(최대 80% 지원) &lt;br&gt;햄버거 : 1개(최대 80% 지원) &lt;br&gt;샌드위치 : 2개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D78" s="9"/>
       <c r="I78" s="2">
         <v>2.4</v>
       </c>
@@ -3233,17 +3215,18 @@
       </c>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" s="8" t="str">
+        <v>86</v>
+      </c>
+      <c r="C79" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:15개 (최대 80% 지원)&lt;br&gt;주먹밥 : 20개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D79" s="9"/>
       <c r="I79" s="2">
         <v>14.914285715999998</v>
       </c>
@@ -3261,17 +3244,18 @@
       </c>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C80" s="8" t="str">
+        <v>87</v>
+      </c>
+      <c r="C80" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:10개 (최대 80% 지원)&lt;br&gt;주먹밥 : 29개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D80" s="9"/>
       <c r="I80" s="2">
         <v>10.457142856800001</v>
       </c>
@@ -3289,17 +3273,18 @@
       </c>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C81" s="8" t="str">
+        <v>88</v>
+      </c>
+      <c r="C81" s="10" t="str">
         <f t="shared" si="1"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:8개 (최대 80% 지원)&lt;br&gt;주먹밥 : 28개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 6개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D81" s="9"/>
       <c r="I81" s="2">
         <v>8.4</v>
       </c>
@@ -3317,17 +3302,18 @@
       </c>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" s="8" t="str">
+        <v>89</v>
+      </c>
+      <c r="C82" s="10" t="str">
         <f t="shared" ref="C82:C145" si="2">"경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:"&amp;TEXT(I82,"##")&amp;"개 (최대 80% 지원)&lt;br&gt;주먹밥 : "&amp;TEXT(J82,"##,#")&amp;"개(최대 80% 지원) &lt;br&gt;햄버거 : "&amp;TEXT(K82,"##")&amp;"개(최대 80% 지원) &lt;br&gt;샌드위치 : "&amp;TEXT(L82,"##")&amp;"개(최대 80% 지원) &lt;br&gt;FF간편식 : "&amp;TEXT(M82,"##")&amp;"개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다."</f>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:17개 (최대 80% 지원)&lt;br&gt;주먹밥 : 53개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 10개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D82" s="9"/>
       <c r="I82" s="2">
         <v>16.971428568</v>
       </c>
@@ -3345,17 +3331,18 @@
       </c>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C83" s="8" t="str">
+        <v>90</v>
+      </c>
+      <c r="C83" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:14개 (최대 80% 지원)&lt;br&gt;주먹밥 : 31개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 10개(최대 80% 지원) &lt;br&gt;FF간편식 : 4개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D83" s="9"/>
       <c r="I83" s="2">
         <v>14.399999999999999</v>
       </c>
@@ -3373,17 +3360,18 @@
       </c>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" s="8" t="str">
+        <v>91</v>
+      </c>
+      <c r="C84" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:12개 (최대 80% 지원)&lt;br&gt;주먹밥 : 25개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D84" s="9"/>
       <c r="I84" s="2">
         <v>12</v>
       </c>
@@ -3401,17 +3389,18 @@
       </c>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" s="8" t="str">
+        <v>92</v>
+      </c>
+      <c r="C85" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:6개 (최대 80% 지원)&lt;br&gt;주먹밥 : 21개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 6개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D85" s="9"/>
       <c r="I85" s="2">
         <v>6</v>
       </c>
@@ -3429,17 +3418,18 @@
       </c>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C86" s="8" t="str">
+        <v>93</v>
+      </c>
+      <c r="C86" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:20개 (최대 80% 지원)&lt;br&gt;주먹밥 : 33개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 11개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D86" s="9"/>
       <c r="I86" s="2">
         <v>19.542857148</v>
       </c>
@@ -3457,17 +3447,18 @@
       </c>
       <c r="N86" s="6"/>
     </row>
-    <row r="87" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C87" s="8" t="str">
+        <v>94</v>
+      </c>
+      <c r="C87" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:8개 (최대 80% 지원)&lt;br&gt;주먹밥 : 31개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D87" s="9"/>
       <c r="I87" s="2">
         <v>7.8857142851999997</v>
       </c>
@@ -3485,17 +3476,18 @@
       </c>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C88" s="8" t="str">
+        <v>95</v>
+      </c>
+      <c r="C88" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:23개 (최대 80% 지원)&lt;br&gt;주먹밥 : 44개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 15개(최대 80% 지원) &lt;br&gt;FF간편식 : 4개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D88" s="9"/>
       <c r="I88" s="2">
         <v>23.314285716000001</v>
       </c>
@@ -3513,17 +3505,18 @@
       </c>
       <c r="N88" s="6"/>
     </row>
-    <row r="89" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C89" s="8" t="str">
+        <v>96</v>
+      </c>
+      <c r="C89" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:8개 (최대 80% 지원)&lt;br&gt;주먹밥 : 10개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 6개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D89" s="9"/>
       <c r="I89" s="2">
         <v>8.2285714284000004</v>
       </c>
@@ -3541,17 +3534,18 @@
       </c>
       <c r="N89" s="6"/>
     </row>
-    <row r="90" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C90" s="8" t="str">
+        <v>9</v>
+      </c>
+      <c r="C90" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:20개 (최대 80% 지원)&lt;br&gt;주먹밥 : 18개(최대 80% 지원) &lt;br&gt;햄버거 : 16개(최대 80% 지원) &lt;br&gt;샌드위치 : 14개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D90" s="9"/>
       <c r="I90" s="2">
         <v>19.885714283999999</v>
       </c>
@@ -3569,17 +3563,18 @@
       </c>
       <c r="N90" s="6"/>
     </row>
-    <row r="91" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C91" s="8" t="str">
+        <v>97</v>
+      </c>
+      <c r="C91" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:15개 (최대 80% 지원)&lt;br&gt;주먹밥 : 26개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D91" s="9"/>
       <c r="I91" s="2">
         <v>14.742857147999999</v>
       </c>
@@ -3597,17 +3592,18 @@
       </c>
       <c r="N91" s="6"/>
     </row>
-    <row r="92" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C92" s="8" t="str">
+        <v>98</v>
+      </c>
+      <c r="C92" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:31개 (최대 80% 지원)&lt;br&gt;주먹밥 : 46개(최대 80% 지원) &lt;br&gt;햄버거 : 18개(최대 80% 지원) &lt;br&gt;샌드위치 : 29개(최대 80% 지원) &lt;br&gt;FF간편식 : 19개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D92" s="9"/>
       <c r="I92" s="2">
         <v>31.285714290000001</v>
       </c>
@@ -3625,17 +3621,18 @@
       </c>
       <c r="N92" s="6"/>
     </row>
-    <row r="93" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C93" s="8" t="str">
+        <v>99</v>
+      </c>
+      <c r="C93" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:8개 (최대 80% 지원)&lt;br&gt;주먹밥 : 29개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D93" s="9"/>
       <c r="I93" s="2">
         <v>7.714285714799999</v>
       </c>
@@ -3653,17 +3650,18 @@
       </c>
       <c r="N93" s="6"/>
     </row>
-    <row r="94" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C94" s="8" t="str">
+        <v>100</v>
+      </c>
+      <c r="C94" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:13개 (최대 80% 지원)&lt;br&gt;주먹밥 : 15개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 4개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D94" s="9"/>
       <c r="I94" s="2">
         <v>12.685714283999999</v>
       </c>
@@ -3681,17 +3679,18 @@
       </c>
       <c r="N94" s="6"/>
     </row>
-    <row r="95" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C95" s="8" t="str">
+        <v>101</v>
+      </c>
+      <c r="C95" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 12개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 4개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D95" s="9"/>
       <c r="I95" s="2">
         <v>9.2571428567999998</v>
       </c>
@@ -3709,17 +3708,18 @@
       </c>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C96" s="8" t="str">
+        <v>101</v>
+      </c>
+      <c r="C96" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 11개(최대 80% 지원) &lt;br&gt;햄버거 : 2개(최대 80% 지원) &lt;br&gt;샌드위치 : 2개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D96" s="9"/>
       <c r="I96" s="2">
         <v>9.24</v>
       </c>
@@ -3737,17 +3737,18 @@
       </c>
       <c r="N96" s="6"/>
     </row>
-    <row r="97" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C97" s="8" t="str">
+        <v>102</v>
+      </c>
+      <c r="C97" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:15개 (최대 80% 지원)&lt;br&gt;주먹밥 : 24개(최대 80% 지원) &lt;br&gt;햄버거 : 3개(최대 80% 지원) &lt;br&gt;샌드위치 : 17개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D97" s="9"/>
       <c r="I97" s="2">
         <v>14.879999999999999</v>
       </c>
@@ -3765,17 +3766,18 @@
       </c>
       <c r="N97" s="6"/>
     </row>
-    <row r="98" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C98" s="8" t="str">
+        <v>103</v>
+      </c>
+      <c r="C98" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:8개 (최대 80% 지원)&lt;br&gt;주먹밥 : 15개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 4개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D98" s="9"/>
       <c r="I98" s="2">
         <v>8.4</v>
       </c>
@@ -3793,17 +3795,18 @@
       </c>
       <c r="N98" s="6"/>
     </row>
-    <row r="99" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C99" s="8" t="str">
+        <v>104</v>
+      </c>
+      <c r="C99" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:17개 (최대 80% 지원)&lt;br&gt;주먹밥 : 22개(최대 80% 지원) &lt;br&gt;햄버거 : 11개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 6개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D99" s="9"/>
       <c r="I99" s="2">
         <v>16.628571431999998</v>
       </c>
@@ -3821,17 +3824,18 @@
       </c>
       <c r="N99" s="6"/>
     </row>
-    <row r="100" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C100" s="8" t="str">
+        <v>105</v>
+      </c>
+      <c r="C100" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 23개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D100" s="9"/>
       <c r="I100" s="2">
         <v>9.4285714283999997</v>
       </c>
@@ -3849,17 +3853,18 @@
       </c>
       <c r="N100" s="6"/>
     </row>
-    <row r="101" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C101" s="8" t="str">
+        <v>106</v>
+      </c>
+      <c r="C101" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:6개 (최대 80% 지원)&lt;br&gt;주먹밥 : 27개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 6개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D101" s="9"/>
       <c r="I101" s="2">
         <v>6.171428571599999</v>
       </c>
@@ -3877,17 +3882,18 @@
       </c>
       <c r="N101" s="6"/>
     </row>
-    <row r="102" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C102" s="8" t="str">
+        <v>107</v>
+      </c>
+      <c r="C102" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:13개 (최대 80% 지원)&lt;br&gt;주먹밥 : 29개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D102" s="9"/>
       <c r="I102" s="2">
         <v>13.028571432</v>
       </c>
@@ -3905,17 +3911,18 @@
       </c>
       <c r="N102" s="6"/>
     </row>
-    <row r="103" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C103" s="8" t="str">
+        <v>108</v>
+      </c>
+      <c r="C103" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:32개 (최대 80% 지원)&lt;br&gt;주먹밥 : 53개(최대 80% 지원) &lt;br&gt;햄버거 : 15개(최대 80% 지원) &lt;br&gt;샌드위치 : 11개(최대 80% 지원) &lt;br&gt;FF간편식 : 7개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D103" s="9"/>
       <c r="I103" s="2">
         <v>31.714285709999999</v>
       </c>
@@ -3933,17 +3940,18 @@
       </c>
       <c r="N103" s="6"/>
     </row>
-    <row r="104" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C104" s="8" t="str">
+        <v>109</v>
+      </c>
+      <c r="C104" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:5개 (최대 80% 지원)&lt;br&gt;주먹밥 : 7개(최대 80% 지원) &lt;br&gt;햄버거 : 2개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D104" s="9"/>
       <c r="I104" s="2">
         <v>5.1428571431999996</v>
       </c>
@@ -3961,17 +3969,18 @@
       </c>
       <c r="N104" s="6"/>
     </row>
-    <row r="105" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C105" s="8" t="str">
+        <v>110</v>
+      </c>
+      <c r="C105" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:4개 (최대 80% 지원)&lt;br&gt;주먹밥 : 7개(최대 80% 지원) &lt;br&gt;햄버거 : 2개(최대 80% 지원) &lt;br&gt;샌드위치 : 2개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D105" s="9"/>
       <c r="I105" s="2">
         <v>3.5999999999999996</v>
       </c>
@@ -3989,17 +3998,18 @@
       </c>
       <c r="N105" s="6"/>
     </row>
-    <row r="106" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C106" s="8" t="str">
+        <v>111</v>
+      </c>
+      <c r="C106" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:10개 (최대 80% 지원)&lt;br&gt;주먹밥 : 44개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D106" s="9"/>
       <c r="I106" s="2">
         <v>10.457142856800001</v>
       </c>
@@ -4017,17 +4027,18 @@
       </c>
       <c r="N106" s="6"/>
     </row>
-    <row r="107" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C107" s="8" t="str">
+        <v>112</v>
+      </c>
+      <c r="C107" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:8개 (최대 80% 지원)&lt;br&gt;주먹밥 : 19개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D107" s="9"/>
       <c r="I107" s="2">
         <v>8.4</v>
       </c>
@@ -4045,17 +4056,18 @@
       </c>
       <c r="N107" s="6"/>
     </row>
-    <row r="108" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C108" s="8" t="str">
+        <v>113</v>
+      </c>
+      <c r="C108" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:22개 (최대 80% 지원)&lt;br&gt;주먹밥 : 33개(최대 80% 지원) &lt;br&gt;햄버거 : 13개(최대 80% 지원) &lt;br&gt;샌드위치 : 17개(최대 80% 지원) &lt;br&gt;FF간편식 : 9개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D108" s="9"/>
       <c r="I108" s="2">
         <v>21.771428568000001</v>
       </c>
@@ -4073,17 +4085,18 @@
       </c>
       <c r="N108" s="6"/>
     </row>
-    <row r="109" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C109" s="8" t="str">
+        <v>114</v>
+      </c>
+      <c r="C109" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:16개 (최대 80% 지원)&lt;br&gt;주먹밥 : 25개(최대 80% 지원) &lt;br&gt;햄버거 : 9개(최대 80% 지원) &lt;br&gt;샌드위치 : 11개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D109" s="9"/>
       <c r="I109" s="2">
         <v>16.457142852</v>
       </c>
@@ -4101,17 +4114,18 @@
       </c>
       <c r="N109" s="6"/>
     </row>
-    <row r="110" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C110" s="8" t="str">
+        <v>115</v>
+      </c>
+      <c r="C110" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 19개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D110" s="9"/>
       <c r="I110" s="2">
         <v>8.5714285715999985</v>
       </c>
@@ -4129,17 +4143,18 @@
       </c>
       <c r="N110" s="6"/>
     </row>
-    <row r="111" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" s="8" t="str">
+        <v>7</v>
+      </c>
+      <c r="C111" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 20개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 4개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D111" s="9"/>
       <c r="I111" s="2">
         <v>9.4285714283999997</v>
       </c>
@@ -4157,17 +4172,18 @@
       </c>
       <c r="N111" s="6"/>
     </row>
-    <row r="112" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C112" s="8" t="str">
+        <v>116</v>
+      </c>
+      <c r="C112" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:24개 (최대 80% 지원)&lt;br&gt;주먹밥 : 53개(최대 80% 지원) &lt;br&gt;햄버거 : 17개(최대 80% 지원) &lt;br&gt;샌드위치 : 20개(최대 80% 지원) &lt;br&gt;FF간편식 : 9개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D112" s="9"/>
       <c r="I112" s="2">
         <v>23.828571432</v>
       </c>
@@ -4185,17 +4201,18 @@
       </c>
       <c r="N112" s="6"/>
     </row>
-    <row r="113" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C113" s="8" t="str">
+        <v>117</v>
+      </c>
+      <c r="C113" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:21개 (최대 80% 지원)&lt;br&gt;주먹밥 : 50개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 13개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D113" s="9"/>
       <c r="I113" s="2">
         <v>20.571428567999998</v>
       </c>
@@ -4213,17 +4230,18 @@
       </c>
       <c r="N113" s="6"/>
     </row>
-    <row r="114" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C114" s="8" t="str">
+        <v>118</v>
+      </c>
+      <c r="C114" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:14개 (최대 80% 지원)&lt;br&gt;주먹밥 : 19개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 4개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D114" s="9"/>
       <c r="I114" s="2">
         <v>13.714285715999999</v>
       </c>
@@ -4241,17 +4259,18 @@
       </c>
       <c r="N114" s="6"/>
     </row>
-    <row r="115" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C115" s="8" t="str">
+        <v>119</v>
+      </c>
+      <c r="C115" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:14개 (최대 80% 지원)&lt;br&gt;주먹밥 : 32개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D115" s="9"/>
       <c r="I115" s="2">
         <v>14.399999999999999</v>
       </c>
@@ -4269,17 +4288,18 @@
       </c>
       <c r="N115" s="6"/>
     </row>
-    <row r="116" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C116" s="8" t="str">
+        <v>120</v>
+      </c>
+      <c r="C116" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:13개 (최대 80% 지원)&lt;br&gt;주먹밥 : 30개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D116" s="9"/>
       <c r="I116" s="2">
         <v>12.514285716</v>
       </c>
@@ -4297,17 +4317,18 @@
       </c>
       <c r="N116" s="6"/>
     </row>
-    <row r="117" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C117" s="8" t="str">
+        <v>121</v>
+      </c>
+      <c r="C117" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:27개 (최대 80% 지원)&lt;br&gt;주먹밥 : 38개(최대 80% 지원) &lt;br&gt;햄버거 : 12개(최대 80% 지원) &lt;br&gt;샌드위치 : 11개(최대 80% 지원) &lt;br&gt;FF간편식 : 4개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D117" s="9"/>
       <c r="I117" s="2">
         <v>27.285714290000001</v>
       </c>
@@ -4325,17 +4346,18 @@
       </c>
       <c r="N117" s="6"/>
     </row>
-    <row r="118" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C118" s="8" t="str">
+        <v>122</v>
+      </c>
+      <c r="C118" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:22개 (최대 80% 지원)&lt;br&gt;주먹밥 : 25개(최대 80% 지원) &lt;br&gt;햄버거 : 9개(최대 80% 지원) &lt;br&gt;샌드위치 : 10개(최대 80% 지원) &lt;br&gt;FF간편식 : 5개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D118" s="9"/>
       <c r="I118" s="2">
         <v>21.942857148000002</v>
       </c>
@@ -4353,17 +4375,18 @@
       </c>
       <c r="N118" s="6"/>
     </row>
-    <row r="119" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C119" s="8" t="str">
+        <v>123</v>
+      </c>
+      <c r="C119" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:23개 (최대 80% 지원)&lt;br&gt;주먹밥 : 23개(최대 80% 지원) &lt;br&gt;햄버거 : 9개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D119" s="9"/>
       <c r="I119" s="2">
         <v>23.485714283999997</v>
       </c>
@@ -4381,17 +4404,18 @@
       </c>
       <c r="N119" s="6"/>
     </row>
-    <row r="120" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C120" s="8" t="str">
+        <v>124</v>
+      </c>
+      <c r="C120" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:15개 (최대 80% 지원)&lt;br&gt;주먹밥 : 26개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 13개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D120" s="9"/>
       <c r="I120" s="2">
         <v>15.428571431999998</v>
       </c>
@@ -4409,17 +4433,18 @@
       </c>
       <c r="N120" s="6"/>
     </row>
-    <row r="121" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C121" s="8" t="str">
+        <v>125</v>
+      </c>
+      <c r="C121" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:24개 (최대 80% 지원)&lt;br&gt;주먹밥 : 45개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 11개(최대 80% 지원) &lt;br&gt;FF간편식 : 4개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D121" s="9"/>
       <c r="I121" s="2">
         <v>23.828571432</v>
       </c>
@@ -4437,17 +4462,18 @@
       </c>
       <c r="N121" s="6"/>
     </row>
-    <row r="122" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C122" s="8" t="str">
+        <v>126</v>
+      </c>
+      <c r="C122" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:22개 (최대 80% 지원)&lt;br&gt;주먹밥 : 39개(최대 80% 지원) &lt;br&gt;햄버거 : 3개(최대 80% 지원) &lt;br&gt;샌드위치 : 10개(최대 80% 지원) &lt;br&gt;FF간편식 : 5개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D122" s="9"/>
       <c r="I122" s="2">
         <v>22.457142851999997</v>
       </c>
@@ -4465,17 +4491,18 @@
       </c>
       <c r="N122" s="6"/>
     </row>
-    <row r="123" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C123" s="8" t="str">
+        <v>127</v>
+      </c>
+      <c r="C123" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:22개 (최대 80% 지원)&lt;br&gt;주먹밥 : 29개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 7개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D123" s="9"/>
       <c r="I123" s="2">
         <v>21.771428568000001</v>
       </c>
@@ -4493,17 +4520,18 @@
       </c>
       <c r="N123" s="6"/>
     </row>
-    <row r="124" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C124" s="8" t="str">
+        <v>12</v>
+      </c>
+      <c r="C124" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 36개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 10개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D124" s="9"/>
       <c r="I124" s="2">
         <v>9.0857142851999999</v>
       </c>
@@ -4521,17 +4549,18 @@
       </c>
       <c r="N124" s="6"/>
     </row>
-    <row r="125" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C125" s="8" t="str">
+        <v>128</v>
+      </c>
+      <c r="C125" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:19개 (최대 80% 지원)&lt;br&gt;주먹밥 : 24개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 11개(최대 80% 지원) &lt;br&gt;FF간편식 : 14개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D125" s="9"/>
       <c r="I125" s="2">
         <v>18.514285716</v>
       </c>
@@ -4549,17 +4578,18 @@
       </c>
       <c r="N125" s="6"/>
     </row>
-    <row r="126" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C126" s="8" t="str">
+        <v>129</v>
+      </c>
+      <c r="C126" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:6개 (최대 80% 지원)&lt;br&gt;주먹밥 : 13개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 5개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D126" s="9"/>
       <c r="I126" s="2">
         <v>6.3428571431999998</v>
       </c>
@@ -4577,17 +4607,18 @@
       </c>
       <c r="N126" s="6"/>
     </row>
-    <row r="127" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="8" t="str">
+        <v>13</v>
+      </c>
+      <c r="C127" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:5개 (최대 80% 지원)&lt;br&gt;주먹밥 : 19개(최대 80% 지원) &lt;br&gt;햄버거 : 2개(최대 80% 지원) &lt;br&gt;샌드위치 : 4개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D127" s="9"/>
       <c r="I127" s="2">
         <v>4.8</v>
       </c>
@@ -4605,17 +4636,18 @@
       </c>
       <c r="N127" s="6"/>
     </row>
-    <row r="128" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C128" s="8" t="str">
+        <v>14</v>
+      </c>
+      <c r="C128" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:19개 (최대 80% 지원)&lt;br&gt;주먹밥 : 38개(최대 80% 지원) &lt;br&gt;햄버거 : 14개(최대 80% 지원) &lt;br&gt;샌드위치 : 10개(최대 80% 지원) &lt;br&gt;FF간편식 : 7개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D128" s="9"/>
       <c r="I128" s="2">
         <v>18.514285716</v>
       </c>
@@ -4633,17 +4665,18 @@
       </c>
       <c r="N128" s="6"/>
     </row>
-    <row r="129" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C129" s="8" t="str">
+        <v>130</v>
+      </c>
+      <c r="C129" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:5개 (최대 80% 지원)&lt;br&gt;주먹밥 : 36개(최대 80% 지원) &lt;br&gt;햄버거 : 3개(최대 80% 지원) &lt;br&gt;샌드위치 : 4개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D129" s="9"/>
       <c r="I129" s="2">
         <v>4.8</v>
       </c>
@@ -4661,17 +4694,18 @@
       </c>
       <c r="N129" s="6"/>
     </row>
-    <row r="130" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C130" s="8" t="str">
+        <v>131</v>
+      </c>
+      <c r="C130" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:10개 (최대 80% 지원)&lt;br&gt;주먹밥 : 26개(최대 80% 지원) &lt;br&gt;햄버거 : 3개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D130" s="9"/>
       <c r="I130" s="2">
         <v>9.7714285715999996</v>
       </c>
@@ -4689,17 +4723,18 @@
       </c>
       <c r="N130" s="6"/>
     </row>
-    <row r="131" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C131" s="8" t="str">
+        <v>10</v>
+      </c>
+      <c r="C131" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:19개 (최대 80% 지원)&lt;br&gt;주먹밥 : 19개(최대 80% 지원) &lt;br&gt;햄버거 : 13개(최대 80% 지원) &lt;br&gt;샌드위치 : 11개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D131" s="9"/>
       <c r="I131" s="2">
         <v>19.371428567999999</v>
       </c>
@@ -4717,17 +4752,18 @@
       </c>
       <c r="N131" s="6"/>
     </row>
-    <row r="132" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C132" s="8" t="str">
+        <v>132</v>
+      </c>
+      <c r="C132" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:12개 (최대 80% 지원)&lt;br&gt;주먹밥 : 26개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 4개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D132" s="9"/>
       <c r="I132" s="2">
         <v>11.828571428399998</v>
       </c>
@@ -4745,17 +4781,18 @@
       </c>
       <c r="N132" s="6"/>
     </row>
-    <row r="133" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C133" s="8" t="str">
+        <v>133</v>
+      </c>
+      <c r="C133" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:10개 (최대 80% 지원)&lt;br&gt;주먹밥 : 25개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D133" s="9"/>
       <c r="I133" s="2">
         <v>9.7714285715999996</v>
       </c>
@@ -4773,17 +4810,18 @@
       </c>
       <c r="N133" s="6"/>
     </row>
-    <row r="134" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C134" s="8" t="str">
+        <v>134</v>
+      </c>
+      <c r="C134" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:8개 (최대 80% 지원)&lt;br&gt;주먹밥 : 26개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D134" s="9"/>
       <c r="I134" s="2">
         <v>7.5428571432</v>
       </c>
@@ -4801,17 +4839,18 @@
       </c>
       <c r="N134" s="6"/>
     </row>
-    <row r="135" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C135" s="8" t="str">
+        <v>135</v>
+      </c>
+      <c r="C135" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:14개 (최대 80% 지원)&lt;br&gt;주먹밥 : 38개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D135" s="9"/>
       <c r="I135" s="2">
         <v>13.714285715999999</v>
       </c>
@@ -4829,17 +4868,18 @@
       </c>
       <c r="N135" s="6"/>
     </row>
-    <row r="136" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C136" s="8" t="str">
+        <v>136</v>
+      </c>
+      <c r="C136" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:14개 (최대 80% 지원)&lt;br&gt;주먹밥 : 27개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D136" s="9"/>
       <c r="I136" s="2">
         <v>14.057142852</v>
       </c>
@@ -4857,17 +4897,18 @@
       </c>
       <c r="N136" s="6"/>
     </row>
-    <row r="137" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C137" s="8" t="str">
+        <v>137</v>
+      </c>
+      <c r="C137" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:7개 (최대 80% 지원)&lt;br&gt;주먹밥 : 30개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 5개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D137" s="9"/>
       <c r="I137" s="2">
         <v>7.3714285715999992</v>
       </c>
@@ -4885,17 +4926,18 @@
       </c>
       <c r="N137" s="6"/>
     </row>
-    <row r="138" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C138" s="8" t="str">
+        <v>138</v>
+      </c>
+      <c r="C138" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:10개 (최대 80% 지원)&lt;br&gt;주먹밥 : 27개(최대 80% 지원) &lt;br&gt;햄버거 : 7개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 7개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D138" s="9"/>
       <c r="I138" s="2">
         <v>10.457142856800001</v>
       </c>
@@ -4913,17 +4955,18 @@
       </c>
       <c r="N138" s="6"/>
     </row>
-    <row r="139" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C139" s="8" t="str">
+        <v>139</v>
+      </c>
+      <c r="C139" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:19개 (최대 80% 지원)&lt;br&gt;주먹밥 : 33개(최대 80% 지원) &lt;br&gt;햄버거 : 10개(최대 80% 지원) &lt;br&gt;샌드위치 : 14개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D139" s="9"/>
       <c r="I139" s="2">
         <v>19.2</v>
       </c>
@@ -4941,17 +4984,18 @@
       </c>
       <c r="N139" s="6"/>
     </row>
-    <row r="140" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C140" s="8" t="str">
+        <v>140</v>
+      </c>
+      <c r="C140" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:22개 (최대 80% 지원)&lt;br&gt;주먹밥 : 26개(최대 80% 지원) &lt;br&gt;햄버거 : 11개(최대 80% 지원) &lt;br&gt;샌드위치 : 10개(최대 80% 지원) &lt;br&gt;FF간편식 : 6개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D140" s="9"/>
       <c r="I140" s="2">
         <v>21.942857148000002</v>
       </c>
@@ -4969,17 +5013,18 @@
       </c>
       <c r="N140" s="6"/>
     </row>
-    <row r="141" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C141" s="8" t="str">
+        <v>141</v>
+      </c>
+      <c r="C141" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 7개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 3개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D141" s="9"/>
       <c r="I141" s="2">
         <v>8.5714285715999985</v>
       </c>
@@ -4997,17 +5042,18 @@
       </c>
       <c r="N141" s="6"/>
     </row>
-    <row r="142" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C142" s="8" t="str">
+        <v>142</v>
+      </c>
+      <c r="C142" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:11개 (최대 80% 지원)&lt;br&gt;주먹밥 : 26개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D142" s="9"/>
       <c r="I142" s="2">
         <v>10.971428571600001</v>
       </c>
@@ -5025,17 +5071,18 @@
       </c>
       <c r="N142" s="6"/>
     </row>
-    <row r="143" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C143" s="8" t="str">
+        <v>143</v>
+      </c>
+      <c r="C143" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:21개 (최대 80% 지원)&lt;br&gt;주먹밥 : 50개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 14개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D143" s="9"/>
       <c r="I143" s="2">
         <v>20.571428567999998</v>
       </c>
@@ -5053,17 +5100,18 @@
       </c>
       <c r="N143" s="6"/>
     </row>
-    <row r="144" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C144" s="8" t="str">
+        <v>144</v>
+      </c>
+      <c r="C144" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 21개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D144" s="9"/>
       <c r="I144" s="2">
         <v>9.0857142851999999</v>
       </c>
@@ -5081,17 +5129,18 @@
       </c>
       <c r="N144" s="6"/>
     </row>
-    <row r="145" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C145" s="8" t="str">
+        <v>145</v>
+      </c>
+      <c r="C145" s="10" t="str">
         <f t="shared" si="2"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:8개 (최대 80% 지원)&lt;br&gt;주먹밥 : 14개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 3개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D145" s="9"/>
       <c r="I145" s="2">
         <v>7.714285714799999</v>
       </c>
@@ -5109,17 +5158,18 @@
       </c>
       <c r="N145" s="6"/>
     </row>
-    <row r="146" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C146" s="8" t="str">
+        <v>146</v>
+      </c>
+      <c r="C146" s="10" t="str">
         <f t="shared" ref="C146:C154" si="3">"경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:"&amp;TEXT(I146,"##")&amp;"개 (최대 80% 지원)&lt;br&gt;주먹밥 : "&amp;TEXT(J146,"##,#")&amp;"개(최대 80% 지원) &lt;br&gt;햄버거 : "&amp;TEXT(K146,"##")&amp;"개(최대 80% 지원) &lt;br&gt;샌드위치 : "&amp;TEXT(L146,"##")&amp;"개(최대 80% 지원) &lt;br&gt;FF간편식 : "&amp;TEXT(M146,"##")&amp;"개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다."</f>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:11개 (최대 80% 지원)&lt;br&gt;주먹밥 : 16개(최대 80% 지원) &lt;br&gt;햄버거 : 6개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D146" s="9"/>
       <c r="I146" s="2">
         <v>10.799999999999999</v>
       </c>
@@ -5137,17 +5187,18 @@
       </c>
       <c r="N146" s="6"/>
     </row>
-    <row r="147" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C147" s="8" t="str">
+        <v>147</v>
+      </c>
+      <c r="C147" s="10" t="str">
         <f t="shared" si="3"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:12개 (최대 80% 지원)&lt;br&gt;주먹밥 : 19개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 13개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D147" s="9"/>
       <c r="I147" s="2">
         <v>12</v>
       </c>
@@ -5165,17 +5216,18 @@
       </c>
       <c r="N147" s="6"/>
     </row>
-    <row r="148" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C148" s="8" t="str">
+        <v>148</v>
+      </c>
+      <c r="C148" s="10" t="str">
         <f t="shared" si="3"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:15개 (최대 80% 지원)&lt;br&gt;주먹밥 : 41개(최대 80% 지원) &lt;br&gt;햄버거 : 13개(최대 80% 지원) &lt;br&gt;샌드위치 : 9개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D148" s="9"/>
       <c r="I148" s="2">
         <v>15.257142851999999</v>
       </c>
@@ -5193,17 +5245,18 @@
       </c>
       <c r="N148" s="6"/>
     </row>
-    <row r="149" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C149" s="8" t="str">
+        <v>149</v>
+      </c>
+      <c r="C149" s="10" t="str">
         <f t="shared" si="3"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 31개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 1개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D149" s="9"/>
       <c r="I149" s="2">
         <v>9.2571428567999998</v>
       </c>
@@ -5221,17 +5274,18 @@
       </c>
       <c r="N149" s="6"/>
     </row>
-    <row r="150" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C150" s="8" t="str">
+        <v>150</v>
+      </c>
+      <c r="C150" s="10" t="str">
         <f t="shared" si="3"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:19개 (최대 80% 지원)&lt;br&gt;주먹밥 : 26개(최대 80% 지원) &lt;br&gt;햄버거 : 8개(최대 80% 지원) &lt;br&gt;샌드위치 : 13개(최대 80% 지원) &lt;br&gt;FF간편식 : 5개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D150" s="9"/>
       <c r="I150" s="2">
         <v>19.2</v>
       </c>
@@ -5249,17 +5303,18 @@
       </c>
       <c r="N150" s="6"/>
     </row>
-    <row r="151" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C151" s="8" t="str">
+        <v>151</v>
+      </c>
+      <c r="C151" s="10" t="str">
         <f t="shared" si="3"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:9개 (최대 80% 지원)&lt;br&gt;주먹밥 : 20개(최대 80% 지원) &lt;br&gt;햄버거 : 4개(최대 80% 지원) &lt;br&gt;샌드위치 : 7개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D151" s="9"/>
       <c r="I151" s="2">
         <v>8.6000000003999997</v>
       </c>
@@ -5277,17 +5332,18 @@
       </c>
       <c r="N151" s="6"/>
     </row>
-    <row r="152" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C152" s="8" t="str">
+        <v>152</v>
+      </c>
+      <c r="C152" s="10" t="str">
         <f t="shared" si="3"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:15개 (최대 80% 지원)&lt;br&gt;주먹밥 : 29개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 8개(최대 80% 지원) &lt;br&gt;FF간편식 : 2개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D152" s="9"/>
       <c r="I152" s="2">
         <v>15.085714284</v>
       </c>
@@ -5305,17 +5361,18 @@
       </c>
       <c r="N152" s="6"/>
     </row>
-    <row r="153" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C153" s="8" t="str">
+        <v>153</v>
+      </c>
+      <c r="C153" s="10" t="str">
         <f t="shared" si="3"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:24개 (최대 80% 지원)&lt;br&gt;주먹밥 : 32개(최대 80% 지원) &lt;br&gt;햄버거 : 13개(최대 80% 지원) &lt;br&gt;샌드위치 : 20개(최대 80% 지원) &lt;br&gt;FF간편식 : 7개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D153" s="9"/>
       <c r="I153" s="2">
         <v>24</v>
       </c>
@@ -5333,17 +5390,18 @@
       </c>
       <c r="N153" s="6"/>
     </row>
-    <row r="154" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C154" s="8" t="str">
+        <v>154</v>
+      </c>
+      <c r="C154" s="10" t="str">
         <f t="shared" si="3"/>
         <v>경영주님 8월 개강 폐기지원 행사 안내 드립니다. &lt;br&gt;행사기간 목표수량만큼 발주하시면 추가 50% 폐기지원 행사가 진행됩니다.(FF간편식은 추가 30%)&lt;br&gt;진행기간 : 8/24~9/6까지(총 14일간)&lt;br&gt;--------------------&lt;br&gt; 8월 목표 안내 &lt;br&gt; 김밥:8개 (최대 80% 지원)&lt;br&gt;주먹밥 : 13개(최대 80% 지원) &lt;br&gt;햄버거 : 5개(최대 80% 지원) &lt;br&gt;샌드위치 : 5개(최대 80% 지원) &lt;br&gt;FF간편식 : 3개(최대 80% 지원)  &lt;br&gt; -------------------------&lt;br&gt; 폐기지원은 각 분류별 개별대상입니다. &lt;br&gt; 좋은 행사인 만큼 적극적인 참여 부탁드립니다.</v>
       </c>
+      <c r="D154" s="9"/>
       <c r="I154" s="2">
         <v>8.2285714284000004</v>
       </c>
@@ -5361,7 +5419,7 @@
       </c>
       <c r="N154" s="6"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A155" s="1"/>
       <c r="B155" s="7"/>
       <c r="I155" s="2"/>
@@ -5371,7 +5429,7 @@
       <c r="M155" s="3"/>
       <c r="N155" s="6"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A156" s="1"/>
       <c r="B156" s="7"/>
       <c r="I156" s="2"/>
@@ -5381,7 +5439,7 @@
       <c r="M156" s="3"/>
       <c r="N156" s="6"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A157" s="1"/>
       <c r="B157" s="7"/>
       <c r="I157" s="2"/>
@@ -5391,7 +5449,7 @@
       <c r="M157" s="3"/>
       <c r="N157" s="6"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A158" s="1"/>
       <c r="B158" s="7"/>
       <c r="I158" s="2"/>
@@ -5401,7 +5459,7 @@
       <c r="M158" s="3"/>
       <c r="N158" s="6"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A159" s="1"/>
       <c r="B159" s="7"/>
       <c r="I159" s="2"/>
@@ -5411,7 +5469,7 @@
       <c r="M159" s="3"/>
       <c r="N159" s="6"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A160" s="1"/>
       <c r="B160" s="7"/>
       <c r="I160" s="2"/>
@@ -5421,7 +5479,7 @@
       <c r="M160" s="3"/>
       <c r="N160" s="6"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A161" s="1"/>
       <c r="B161" s="7"/>
       <c r="I161" s="2"/>
